--- a/www/IndicatorsPerCountry/Venezuela_GDPperCapita_TerritorialRef_1946_2012_CCode_862.xlsx
+++ b/www/IndicatorsPerCountry/Venezuela_GDPperCapita_TerritorialRef_1946_2012_CCode_862.xlsx
@@ -501,13 +501,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Venezuela_GDPperCapita_TerritorialRef_1946_2012_CCode_862.xlsx
+++ b/www/IndicatorsPerCountry/Venezuela_GDPperCapita_TerritorialRef_1946_2012_CCode_862.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="158">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,442 +36,421 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>415.3373542</t>
+    <t>1073</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>374.773621094</t>
-  </si>
-  <si>
-    <t>729.497332226</t>
-  </si>
-  <si>
-    <t>639.655188301</t>
-  </si>
-  <si>
-    <t>570.43083427</t>
-  </si>
-  <si>
-    <t>577.35919775</t>
-  </si>
-  <si>
-    <t>584.371712046</t>
-  </si>
-  <si>
-    <t>591.469399241</t>
-  </si>
-  <si>
-    <t>596.301813127</t>
-  </si>
-  <si>
-    <t>606.179951626</t>
-  </si>
-  <si>
-    <t>616.221728099</t>
-  </si>
-  <si>
-    <t>626.429853318</t>
-  </si>
-  <si>
-    <t>636.80708296</t>
-  </si>
-  <si>
-    <t>647.49986901</t>
-  </si>
-  <si>
-    <t>676.594572659</t>
-  </si>
-  <si>
-    <t>706.99661523</t>
-  </si>
-  <si>
-    <t>738.764740577</t>
-  </si>
-  <si>
-    <t>771.960332148</t>
-  </si>
-  <si>
-    <t>810.958732555</t>
-  </si>
-  <si>
-    <t>822.386292702</t>
-  </si>
-  <si>
-    <t>833.9748834</t>
-  </si>
-  <si>
-    <t>845.726773796</t>
-  </si>
-  <si>
-    <t>857.644265017</t>
-  </si>
-  <si>
-    <t>869.022868512</t>
-  </si>
-  <si>
-    <t>866.664203254</t>
-  </si>
-  <si>
-    <t>864.311939786</t>
-  </si>
-  <si>
-    <t>861.966060732</t>
-  </si>
-  <si>
-    <t>859.626548765</t>
-  </si>
-  <si>
-    <t>856.533627864</t>
-  </si>
-  <si>
-    <t>849.921488176</t>
-  </si>
-  <si>
-    <t>843.360391891</t>
-  </si>
-  <si>
-    <t>836.849944972</t>
-  </si>
-  <si>
-    <t>830.389756424</t>
-  </si>
-  <si>
-    <t>823.627143801</t>
-  </si>
-  <si>
-    <t>821.18</t>
-  </si>
-  <si>
-    <t>791.392187234</t>
-  </si>
-  <si>
-    <t>856.029600578</t>
-  </si>
-  <si>
-    <t>913.435100027</t>
-  </si>
-  <si>
-    <t>876.247387385</t>
-  </si>
-  <si>
-    <t>860.515049303</t>
-  </si>
-  <si>
-    <t>798.935777237</t>
-  </si>
-  <si>
-    <t>792.814780768</t>
-  </si>
-  <si>
-    <t>841.075295321</t>
-  </si>
-  <si>
-    <t>864.997021518</t>
-  </si>
-  <si>
-    <t>885.562257663</t>
-  </si>
-  <si>
-    <t>936.948703125</t>
-  </si>
-  <si>
-    <t>961.944223966</t>
-  </si>
-  <si>
-    <t>1103.83316524</t>
-  </si>
-  <si>
-    <t>956.430505617</t>
-  </si>
-  <si>
-    <t>979.556984832</t>
-  </si>
-  <si>
-    <t>920.639822252</t>
-  </si>
-  <si>
-    <t>1068.96643505</t>
-  </si>
-  <si>
-    <t>1057.4721723</t>
-  </si>
-  <si>
-    <t>982.776862455</t>
-  </si>
-  <si>
-    <t>1172.69139963</t>
-  </si>
-  <si>
-    <t>1213.91336801</t>
-  </si>
-  <si>
-    <t>1240.65082298</t>
-  </si>
-  <si>
-    <t>1420.2520648</t>
-  </si>
-  <si>
-    <t>1630.02616615</t>
-  </si>
-  <si>
-    <t>2081.32528711</t>
-  </si>
-  <si>
-    <t>2487.00546107</t>
-  </si>
-  <si>
-    <t>2761.04822131</t>
-  </si>
-  <si>
-    <t>3057.18126933</t>
-  </si>
-  <si>
-    <t>3426.48239937</t>
-  </si>
-  <si>
-    <t>3444.4752667</t>
-  </si>
-  <si>
-    <t>2753.99227607</t>
-  </si>
-  <si>
-    <t>2612.91075354</t>
-  </si>
-  <si>
-    <t>2831.01562153</t>
-  </si>
-  <si>
-    <t>2994.88694208</t>
-  </si>
-  <si>
-    <t>3180.65655981</t>
-  </si>
-  <si>
-    <t>3448.98616198</t>
-  </si>
-  <si>
-    <t>3895.88766088</t>
-  </si>
-  <si>
-    <t>4144.36858254</t>
-  </si>
-  <si>
-    <t>4305.36115569</t>
-  </si>
-  <si>
-    <t>4045.16640965</t>
-  </si>
-  <si>
-    <t>3902.61503092</t>
-  </si>
-  <si>
-    <t>3346.60105368</t>
-  </si>
-  <si>
-    <t>3574.88726906</t>
-  </si>
-  <si>
-    <t>4309.05772886</t>
-  </si>
-  <si>
-    <t>5102.30949156</t>
-  </si>
-  <si>
-    <t>5947.82484768</t>
-  </si>
-  <si>
-    <t>6893.60593109</t>
-  </si>
-  <si>
-    <t>7394.1288749</t>
-  </si>
-  <si>
-    <t>7543.57807326</t>
-  </si>
-  <si>
-    <t>7461.95951852</t>
-  </si>
-  <si>
-    <t>7663.18703014</t>
-  </si>
-  <si>
-    <t>7991.81111441</t>
-  </si>
-  <si>
-    <t>7956.45739823</t>
-  </si>
-  <si>
-    <t>8417.38610932</t>
-  </si>
-  <si>
-    <t>8749.8624503</t>
-  </si>
-  <si>
-    <t>9123.69773081</t>
-  </si>
-  <si>
-    <t>10057.7859443</t>
-  </si>
-  <si>
-    <t>9816.283401</t>
-  </si>
-  <si>
-    <t>9997.40357558</t>
-  </si>
-  <si>
-    <t>9645.88949648</t>
-  </si>
-  <si>
-    <t>9001.5897376</t>
-  </si>
-  <si>
-    <t>9057.91517645</t>
-  </si>
-  <si>
-    <t>9134.37973578</t>
-  </si>
-  <si>
-    <t>9562.09385267</t>
-  </si>
-  <si>
-    <t>9841.48742768</t>
-  </si>
-  <si>
-    <t>9677.24478587</t>
-  </si>
-  <si>
-    <t>9921.57001682</t>
-  </si>
-  <si>
-    <t>10249.3470667</t>
-  </si>
-  <si>
-    <t>10262.4227758</t>
-  </si>
-  <si>
-    <t>10671.7622774</t>
-  </si>
-  <si>
-    <t>10446.3062245</t>
-  </si>
-  <si>
-    <t>10245.3626365</t>
-  </si>
-  <si>
-    <t>10625.0423042</t>
-  </si>
-  <si>
-    <t>10507.4995753</t>
-  </si>
-  <si>
-    <t>10471.647821</t>
-  </si>
-  <si>
-    <t>10929.3543954</t>
-  </si>
-  <si>
-    <t>11250.8824523</t>
-  </si>
-  <si>
-    <t>11164.3072944</t>
-  </si>
-  <si>
-    <t>10919.5905544</t>
-  </si>
-  <si>
-    <t>10139.2277434</t>
-  </si>
-  <si>
-    <t>9841.12425909</t>
-  </si>
-  <si>
-    <t>9356.13528812</t>
-  </si>
-  <si>
-    <t>8745.42111163</t>
-  </si>
-  <si>
-    <t>8623.03442517</t>
-  </si>
-  <si>
-    <t>8521.42511</t>
-  </si>
-  <si>
-    <t>8724.5040318</t>
-  </si>
-  <si>
-    <t>8804.93565057</t>
-  </si>
-  <si>
-    <t>9080.10399524</t>
-  </si>
-  <si>
-    <t>8093.96053902</t>
-  </si>
-  <si>
-    <t>8312.86784833</t>
-  </si>
-  <si>
-    <t>8907.16589829</t>
-  </si>
-  <si>
-    <t>9234.49797146</t>
-  </si>
-  <si>
-    <t>9060.60619241</t>
-  </si>
-  <si>
-    <t>8665.7172854</t>
-  </si>
-  <si>
-    <t>8831.34669822</t>
-  </si>
-  <si>
-    <t>8648.61644133</t>
-  </si>
-  <si>
-    <t>9034.6264612</t>
-  </si>
-  <si>
-    <t>8906.04297941</t>
-  </si>
-  <si>
-    <t>8237.70788079</t>
-  </si>
-  <si>
-    <t>8409.04534378</t>
-  </si>
-  <si>
-    <t>8566.4353144</t>
-  </si>
-  <si>
-    <t>7695.53819336</t>
-  </si>
-  <si>
-    <t>6996.44495941</t>
-  </si>
-  <si>
-    <t>8156.49787068</t>
-  </si>
-  <si>
-    <t>8868.26244461</t>
-  </si>
-  <si>
-    <t>9602.28395731</t>
-  </si>
-  <si>
-    <t>10289.5087638</t>
-  </si>
-  <si>
-    <t>10672.1083089</t>
-  </si>
-  <si>
-    <t>10176.2483013</t>
-  </si>
-  <si>
-    <t>9874.35877374</t>
+    <t>968</t>
+  </si>
+  <si>
+    <t>1922</t>
+  </si>
+  <si>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>2142</t>
+  </si>
+  <si>
+    <t>2173</t>
+  </si>
+  <si>
+    <t>2195</t>
+  </si>
+  <si>
+    <t>2153</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>1693</t>
+  </si>
+  <si>
+    <t>1576</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>1769</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1846</t>
+  </si>
+  <si>
+    <t>1865</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>2134</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>2077</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2385</t>
+  </si>
+  <si>
+    <t>2480</t>
+  </si>
+  <si>
+    <t>2673</t>
+  </si>
+  <si>
+    <t>2520</t>
+  </si>
+  <si>
+    <t>2270</t>
+  </si>
+  <si>
+    <t>2232</t>
+  </si>
+  <si>
+    <t>2423</t>
+  </si>
+  <si>
+    <t>2192</t>
+  </si>
+  <si>
+    <t>1655</t>
+  </si>
+  <si>
+    <t>1674</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>2096</t>
+  </si>
+  <si>
+    <t>2289</t>
+  </si>
+  <si>
+    <t>2461</t>
+  </si>
+  <si>
+    <t>2866</t>
+  </si>
+  <si>
+    <t>2942</t>
+  </si>
+  <si>
+    <t>2923</t>
+  </si>
+  <si>
+    <t>2904</t>
+  </si>
+  <si>
+    <t>2635</t>
+  </si>
+  <si>
+    <t>3038</t>
+  </si>
+  <si>
+    <t>3615</t>
+  </si>
+  <si>
+    <t>3904</t>
+  </si>
+  <si>
+    <t>3885</t>
+  </si>
+  <si>
+    <t>4289</t>
+  </si>
+  <si>
+    <t>4538</t>
+  </si>
+  <si>
+    <t>4769</t>
+  </si>
+  <si>
+    <t>4635</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>4423</t>
+  </si>
+  <si>
+    <t>5808</t>
+  </si>
+  <si>
+    <t>6655</t>
+  </si>
+  <si>
+    <t>6500</t>
+  </si>
+  <si>
+    <t>7712</t>
+  </si>
+  <si>
+    <t>7828</t>
+  </si>
+  <si>
+    <t>8462</t>
+  </si>
+  <si>
+    <t>9039</t>
+  </si>
+  <si>
+    <t>9309</t>
+  </si>
+  <si>
+    <t>9500</t>
+  </si>
+  <si>
+    <t>10020</t>
+  </si>
+  <si>
+    <t>10501</t>
+  </si>
+  <si>
+    <t>11136</t>
+  </si>
+  <si>
+    <t>11923</t>
+  </si>
+  <si>
+    <t>11615</t>
+  </si>
+  <si>
+    <t>12078</t>
+  </si>
+  <si>
+    <t>12116</t>
+  </si>
+  <si>
+    <t>12231</t>
+  </si>
+  <si>
+    <t>12848</t>
+  </si>
+  <si>
+    <t>13232</t>
+  </si>
+  <si>
+    <t>14019</t>
+  </si>
+  <si>
+    <t>14347</t>
+  </si>
+  <si>
+    <t>14174</t>
+  </si>
+  <si>
+    <t>14250</t>
+  </si>
+  <si>
+    <t>14520</t>
+  </si>
+  <si>
+    <t>14655</t>
+  </si>
+  <si>
+    <t>15289</t>
+  </si>
+  <si>
+    <t>15192</t>
+  </si>
+  <si>
+    <t>15135</t>
+  </si>
+  <si>
+    <t>15540</t>
+  </si>
+  <si>
+    <t>15943</t>
+  </si>
+  <si>
+    <t>16385</t>
+  </si>
+  <si>
+    <t>17174</t>
+  </si>
+  <si>
+    <t>17693</t>
+  </si>
+  <si>
+    <t>17481</t>
+  </si>
+  <si>
+    <t>17135</t>
+  </si>
+  <si>
+    <t>16270</t>
+  </si>
+  <si>
+    <t>15750</t>
+  </si>
+  <si>
+    <t>15423</t>
+  </si>
+  <si>
+    <t>14155</t>
+  </si>
+  <si>
+    <t>13597</t>
+  </si>
+  <si>
+    <t>13270</t>
+  </si>
+  <si>
+    <t>13751</t>
+  </si>
+  <si>
+    <t>13866</t>
+  </si>
+  <si>
+    <t>14308</t>
+  </si>
+  <si>
+    <t>12750</t>
+  </si>
+  <si>
+    <t>13251</t>
+  </si>
+  <si>
+    <t>14274.5254871498</t>
+  </si>
+  <si>
+    <t>14901.6163547276</t>
+  </si>
+  <si>
+    <t>14693.9020382264</t>
+  </si>
+  <si>
+    <t>14129.2779756315</t>
+  </si>
+  <si>
+    <t>14448.282191871</t>
+  </si>
+  <si>
+    <t>14211.8094140366</t>
+  </si>
+  <si>
+    <t>14894.3367455931</t>
+  </si>
+  <si>
+    <t>14739.0506582181</t>
+  </si>
+  <si>
+    <t>13669.4846042935</t>
+  </si>
+  <si>
+    <t>13992.6088079489</t>
+  </si>
+  <si>
+    <t>14298.0369575809</t>
+  </si>
+  <si>
+    <t>12856.0491874285</t>
+  </si>
+  <si>
+    <t>11728.1830056233</t>
+  </si>
+  <si>
+    <t>13713.0452363689</t>
+  </si>
+  <si>
+    <t>14944.3394893285</t>
+  </si>
+  <si>
+    <t>16253.6857538536</t>
+  </si>
+  <si>
+    <t>17386.0852764399</t>
+  </si>
+  <si>
+    <t>18019.090180914</t>
+  </si>
+  <si>
+    <t>17242.9448266908</t>
+  </si>
+  <si>
+    <t>17105.5793278233</t>
+  </si>
+  <si>
+    <t>17746</t>
+  </si>
+  <si>
+    <t>18549</t>
+  </si>
+  <si>
+    <t>21429</t>
+  </si>
+  <si>
+    <t>20317</t>
+  </si>
+  <si>
+    <t>18802</t>
+  </si>
+  <si>
+    <t>15219</t>
   </si>
   <si>
     <t>Description</t>
@@ -1099,7 +1078,7 @@
         <v>1830.0</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1116,7 +1095,7 @@
         <v>1831.0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1133,7 +1112,7 @@
         <v>1832.0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1150,7 +1129,7 @@
         <v>1833.0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -1167,7 +1146,7 @@
         <v>1834.0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -1184,7 +1163,7 @@
         <v>1835.0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1201,7 +1180,7 @@
         <v>1836.0</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -1218,7 +1197,7 @@
         <v>1837.0</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -1235,7 +1214,7 @@
         <v>1838.0</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1231,7 @@
         <v>1839.0</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -1269,7 +1248,7 @@
         <v>1840.0</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1286,7 +1265,7 @@
         <v>1841.0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -1303,7 +1282,7 @@
         <v>1842.0</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -1320,7 +1299,7 @@
         <v>1843.0</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -1337,7 +1316,7 @@
         <v>1844.0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -1354,7 +1333,7 @@
         <v>1845.0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
@@ -1371,7 +1350,7 @@
         <v>1846.0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -1388,7 +1367,7 @@
         <v>1847.0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -1405,7 +1384,7 @@
         <v>1848.0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -1422,7 +1401,7 @@
         <v>1849.0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -1439,7 +1418,7 @@
         <v>1850.0</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -1456,7 +1435,7 @@
         <v>1851.0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
@@ -1473,7 +1452,7 @@
         <v>1852.0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -1490,7 +1469,7 @@
         <v>1853.0</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
@@ -1507,7 +1486,7 @@
         <v>1854.0</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
@@ -1524,7 +1503,7 @@
         <v>1855.0</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -1541,7 +1520,7 @@
         <v>1856.0</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
@@ -1558,7 +1537,7 @@
         <v>1857.0</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -1575,7 +1554,7 @@
         <v>1858.0</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -1592,7 +1571,7 @@
         <v>1859.0</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -1609,7 +1588,7 @@
         <v>1860.0</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -1626,7 +1605,7 @@
         <v>1861.0</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -1643,7 +1622,7 @@
         <v>1862.0</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -1660,7 +1639,7 @@
         <v>1863.0</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -1677,7 +1656,7 @@
         <v>1864.0</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -1694,7 +1673,7 @@
         <v>1865.0</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
@@ -1711,7 +1690,7 @@
         <v>1866.0</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
@@ -1728,7 +1707,7 @@
         <v>1867.0</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
@@ -1745,7 +1724,7 @@
         <v>1868.0</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
@@ -1762,7 +1741,7 @@
         <v>1869.0</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
@@ -1779,7 +1758,7 @@
         <v>1870.0</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
@@ -1796,7 +1775,7 @@
         <v>1871.0</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
@@ -1813,7 +1792,7 @@
         <v>1872.0</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
@@ -1830,7 +1809,7 @@
         <v>1873.0</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -1847,7 +1826,7 @@
         <v>1874.0</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77">
@@ -1864,7 +1843,7 @@
         <v>1875.0</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -1881,7 +1860,7 @@
         <v>1876.0</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
@@ -1898,7 +1877,7 @@
         <v>1877.0</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">
@@ -1915,7 +1894,7 @@
         <v>1878.0</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81">
@@ -1932,7 +1911,7 @@
         <v>1879.0</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
@@ -1949,7 +1928,7 @@
         <v>1880.0</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -1966,7 +1945,7 @@
         <v>1881.0</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -1983,7 +1962,7 @@
         <v>1882.0</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
@@ -2000,7 +1979,7 @@
         <v>1883.0</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86">
@@ -2017,7 +1996,7 @@
         <v>1884.0</v>
       </c>
       <c r="E86" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -2034,7 +2013,7 @@
         <v>1885.0</v>
       </c>
       <c r="E87" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -2051,7 +2030,7 @@
         <v>1886.0</v>
       </c>
       <c r="E88" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89">
@@ -2068,7 +2047,7 @@
         <v>1887.0</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90">
@@ -2085,7 +2064,7 @@
         <v>1888.0</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91">
@@ -2102,7 +2081,7 @@
         <v>1889.0</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92">
@@ -2119,7 +2098,7 @@
         <v>1890.0</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
@@ -2136,7 +2115,7 @@
         <v>1891.0</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94">
@@ -2153,7 +2132,7 @@
         <v>1892.0</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95">
@@ -2170,7 +2149,7 @@
         <v>1893.0</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96">
@@ -2187,7 +2166,7 @@
         <v>1894.0</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97">
@@ -2204,7 +2183,7 @@
         <v>1895.0</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98">
@@ -2221,7 +2200,7 @@
         <v>1896.0</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -2238,7 +2217,7 @@
         <v>1897.0</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100">
@@ -2255,7 +2234,7 @@
         <v>1898.0</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
@@ -2272,7 +2251,7 @@
         <v>1899.0</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102">
@@ -2289,7 +2268,7 @@
         <v>1900.0</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
@@ -2306,7 +2285,7 @@
         <v>1901.0</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104">
@@ -2323,7 +2302,7 @@
         <v>1902.0</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105">
@@ -2340,7 +2319,7 @@
         <v>1903.0</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106">
@@ -2357,7 +2336,7 @@
         <v>1904.0</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
@@ -2374,7 +2353,7 @@
         <v>1905.0</v>
       </c>
       <c r="E107" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108">
@@ -2391,7 +2370,7 @@
         <v>1906.0</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
@@ -2408,7 +2387,7 @@
         <v>1907.0</v>
       </c>
       <c r="E109" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
@@ -2425,7 +2404,7 @@
         <v>1908.0</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -2442,7 +2421,7 @@
         <v>1909.0</v>
       </c>
       <c r="E111" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
@@ -2476,7 +2455,7 @@
         <v>1911.0</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
@@ -2493,7 +2472,7 @@
         <v>1912.0</v>
       </c>
       <c r="E114" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115">
@@ -2510,7 +2489,7 @@
         <v>1913.0</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
@@ -2527,7 +2506,7 @@
         <v>1914.0</v>
       </c>
       <c r="E116" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117">
@@ -2544,7 +2523,7 @@
         <v>1915.0</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118">
@@ -2561,7 +2540,7 @@
         <v>1916.0</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119">
@@ -2578,7 +2557,7 @@
         <v>1917.0</v>
       </c>
       <c r="E119" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120">
@@ -2595,7 +2574,7 @@
         <v>1918.0</v>
       </c>
       <c r="E120" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
@@ -2612,7 +2591,7 @@
         <v>1919.0</v>
       </c>
       <c r="E121" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122">
@@ -2629,7 +2608,7 @@
         <v>1920.0</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123">
@@ -2646,7 +2625,7 @@
         <v>1921.0</v>
       </c>
       <c r="E123" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
@@ -2663,7 +2642,7 @@
         <v>1922.0</v>
       </c>
       <c r="E124" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
@@ -2680,7 +2659,7 @@
         <v>1923.0</v>
       </c>
       <c r="E125" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126">
@@ -2697,7 +2676,7 @@
         <v>1924.0</v>
       </c>
       <c r="E126" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
@@ -2714,7 +2693,7 @@
         <v>1925.0</v>
       </c>
       <c r="E127" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128">
@@ -2731,7 +2710,7 @@
         <v>1926.0</v>
       </c>
       <c r="E128" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129">
@@ -2748,7 +2727,7 @@
         <v>1927.0</v>
       </c>
       <c r="E129" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130">
@@ -2765,7 +2744,7 @@
         <v>1928.0</v>
       </c>
       <c r="E130" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131">
@@ -2782,7 +2761,7 @@
         <v>1929.0</v>
       </c>
       <c r="E131" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132">
@@ -2799,7 +2778,7 @@
         <v>1930.0</v>
       </c>
       <c r="E132" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133">
@@ -2816,7 +2795,7 @@
         <v>1931.0</v>
       </c>
       <c r="E133" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134">
@@ -2833,7 +2812,7 @@
         <v>1932.0</v>
       </c>
       <c r="E134" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135">
@@ -2850,7 +2829,7 @@
         <v>1933.0</v>
       </c>
       <c r="E135" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136">
@@ -2867,7 +2846,7 @@
         <v>1934.0</v>
       </c>
       <c r="E136" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137">
@@ -2884,7 +2863,7 @@
         <v>1935.0</v>
       </c>
       <c r="E137" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138">
@@ -2901,7 +2880,7 @@
         <v>1936.0</v>
       </c>
       <c r="E138" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="139">
@@ -2918,7 +2897,7 @@
         <v>1937.0</v>
       </c>
       <c r="E139" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140">
@@ -2935,7 +2914,7 @@
         <v>1938.0</v>
       </c>
       <c r="E140" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="141">
@@ -2952,7 +2931,7 @@
         <v>1939.0</v>
       </c>
       <c r="E141" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142">
@@ -2969,7 +2948,7 @@
         <v>1940.0</v>
       </c>
       <c r="E142" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143">
@@ -2986,7 +2965,7 @@
         <v>1941.0</v>
       </c>
       <c r="E143" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144">
@@ -3003,7 +2982,7 @@
         <v>1942.0</v>
       </c>
       <c r="E144" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145">
@@ -3020,7 +2999,7 @@
         <v>1943.0</v>
       </c>
       <c r="E145" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146">
@@ -3037,7 +3016,7 @@
         <v>1944.0</v>
       </c>
       <c r="E146" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147">
@@ -3054,7 +3033,7 @@
         <v>1945.0</v>
       </c>
       <c r="E147" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148">
@@ -3071,7 +3050,7 @@
         <v>1946.0</v>
       </c>
       <c r="E148" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149">
@@ -3088,7 +3067,7 @@
         <v>1947.0</v>
       </c>
       <c r="E149" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150">
@@ -3105,7 +3084,7 @@
         <v>1948.0</v>
       </c>
       <c r="E150" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151">
@@ -3122,7 +3101,7 @@
         <v>1949.0</v>
       </c>
       <c r="E151" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152">
@@ -3139,7 +3118,7 @@
         <v>1950.0</v>
       </c>
       <c r="E152" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153">
@@ -3156,7 +3135,7 @@
         <v>1951.0</v>
       </c>
       <c r="E153" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154">
@@ -3173,7 +3152,7 @@
         <v>1952.0</v>
       </c>
       <c r="E154" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="155">
@@ -3190,7 +3169,7 @@
         <v>1953.0</v>
       </c>
       <c r="E155" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156">
@@ -3207,7 +3186,7 @@
         <v>1954.0</v>
       </c>
       <c r="E156" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="157">
@@ -3224,7 +3203,7 @@
         <v>1955.0</v>
       </c>
       <c r="E157" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158">
@@ -3241,7 +3220,7 @@
         <v>1956.0</v>
       </c>
       <c r="E158" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159">
@@ -3258,7 +3237,7 @@
         <v>1957.0</v>
       </c>
       <c r="E159" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160">
@@ -3275,7 +3254,7 @@
         <v>1958.0</v>
       </c>
       <c r="E160" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="161">
@@ -3292,7 +3271,7 @@
         <v>1959.0</v>
       </c>
       <c r="E161" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="162">
@@ -3309,7 +3288,7 @@
         <v>1960.0</v>
       </c>
       <c r="E162" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163">
@@ -3326,7 +3305,7 @@
         <v>1961.0</v>
       </c>
       <c r="E163" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164">
@@ -3343,7 +3322,7 @@
         <v>1962.0</v>
       </c>
       <c r="E164" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="165">
@@ -3360,7 +3339,7 @@
         <v>1963.0</v>
       </c>
       <c r="E165" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166">
@@ -3377,7 +3356,7 @@
         <v>1964.0</v>
       </c>
       <c r="E166" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="167">
@@ -3394,7 +3373,7 @@
         <v>1965.0</v>
       </c>
       <c r="E167" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="168">
@@ -3411,7 +3390,7 @@
         <v>1966.0</v>
       </c>
       <c r="E168" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="169">
@@ -3428,7 +3407,7 @@
         <v>1967.0</v>
       </c>
       <c r="E169" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="170">
@@ -3445,7 +3424,7 @@
         <v>1968.0</v>
       </c>
       <c r="E170" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="171">
@@ -3462,7 +3441,7 @@
         <v>1969.0</v>
       </c>
       <c r="E171" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172">
@@ -3479,7 +3458,7 @@
         <v>1970.0</v>
       </c>
       <c r="E172" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173">
@@ -3496,7 +3475,7 @@
         <v>1971.0</v>
       </c>
       <c r="E173" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174">
@@ -3513,7 +3492,7 @@
         <v>1972.0</v>
       </c>
       <c r="E174" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="175">
@@ -3530,7 +3509,7 @@
         <v>1973.0</v>
       </c>
       <c r="E175" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176">
@@ -3547,7 +3526,7 @@
         <v>1974.0</v>
       </c>
       <c r="E176" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="177">
@@ -3564,7 +3543,7 @@
         <v>1975.0</v>
       </c>
       <c r="E177" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178">
@@ -3581,7 +3560,7 @@
         <v>1976.0</v>
       </c>
       <c r="E178" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179">
@@ -3598,7 +3577,7 @@
         <v>1977.0</v>
       </c>
       <c r="E179" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="180">
@@ -3615,7 +3594,7 @@
         <v>1978.0</v>
       </c>
       <c r="E180" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="181">
@@ -3632,7 +3611,7 @@
         <v>1979.0</v>
       </c>
       <c r="E181" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="182">
@@ -3649,7 +3628,7 @@
         <v>1980.0</v>
       </c>
       <c r="E182" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="183">
@@ -3666,7 +3645,7 @@
         <v>1981.0</v>
       </c>
       <c r="E183" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="184">
@@ -3683,7 +3662,7 @@
         <v>1982.0</v>
       </c>
       <c r="E184" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="185">
@@ -3700,7 +3679,7 @@
         <v>1983.0</v>
       </c>
       <c r="E185" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="186">
@@ -3717,7 +3696,7 @@
         <v>1984.0</v>
       </c>
       <c r="E186" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="187">
@@ -3734,7 +3713,7 @@
         <v>1985.0</v>
       </c>
       <c r="E187" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="188">
@@ -3751,7 +3730,7 @@
         <v>1986.0</v>
       </c>
       <c r="E188" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="189">
@@ -3768,7 +3747,7 @@
         <v>1987.0</v>
       </c>
       <c r="E189" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="190">
@@ -3785,7 +3764,7 @@
         <v>1988.0</v>
       </c>
       <c r="E190" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="191">
@@ -3802,7 +3781,7 @@
         <v>1989.0</v>
       </c>
       <c r="E191" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="192">
@@ -3819,7 +3798,7 @@
         <v>1990.0</v>
       </c>
       <c r="E192" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="193">
@@ -3836,7 +3815,7 @@
         <v>1991.0</v>
       </c>
       <c r="E193" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="194">
@@ -3853,7 +3832,7 @@
         <v>1992.0</v>
       </c>
       <c r="E194" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="195">
@@ -3870,7 +3849,7 @@
         <v>1993.0</v>
       </c>
       <c r="E195" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="196">
@@ -3887,7 +3866,7 @@
         <v>1994.0</v>
       </c>
       <c r="E196" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="197">
@@ -3904,7 +3883,7 @@
         <v>1995.0</v>
       </c>
       <c r="E197" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="198">
@@ -3921,7 +3900,7 @@
         <v>1996.0</v>
       </c>
       <c r="E198" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="199">
@@ -3938,7 +3917,7 @@
         <v>1997.0</v>
       </c>
       <c r="E199" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="200">
@@ -3955,7 +3934,7 @@
         <v>1998.0</v>
       </c>
       <c r="E200" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="201">
@@ -3972,7 +3951,7 @@
         <v>1999.0</v>
       </c>
       <c r="E201" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="202">
@@ -3989,7 +3968,7 @@
         <v>2000.0</v>
       </c>
       <c r="E202" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="203">
@@ -4006,7 +3985,7 @@
         <v>2001.0</v>
       </c>
       <c r="E203" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="204">
@@ -4023,7 +4002,7 @@
         <v>2002.0</v>
       </c>
       <c r="E204" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="205">
@@ -4040,7 +4019,7 @@
         <v>2003.0</v>
       </c>
       <c r="E205" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="206">
@@ -4057,7 +4036,7 @@
         <v>2004.0</v>
       </c>
       <c r="E206" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="207">
@@ -4074,7 +4053,7 @@
         <v>2005.0</v>
       </c>
       <c r="E207" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208">
@@ -4091,7 +4070,7 @@
         <v>2006.0</v>
       </c>
       <c r="E208" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="209">
@@ -4108,7 +4087,7 @@
         <v>2007.0</v>
       </c>
       <c r="E209" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="210">
@@ -4125,7 +4104,7 @@
         <v>2008.0</v>
       </c>
       <c r="E210" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="211">
@@ -4142,7 +4121,7 @@
         <v>2009.0</v>
       </c>
       <c r="E211" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="212">
@@ -4159,7 +4138,109 @@
         <v>2010.0</v>
       </c>
       <c r="E212" t="s">
-        <v>152</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>862.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>862.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>862.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>862.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>862.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>862.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4177,50 +4258,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
